--- a/Data/Processed/Angiosperms/missing_powo_ipni/Droseraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Droseraceae.xlsx
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carniv. Pl. Newslett. 38(4): 121 (-125; figs. 1-4). 2009 [Dec 2009] </t>
+          <t>Carniv. Pl. Newslett. 38(4): 121 (-125; figs. 1-4). 2009 [Dec 2009]</t>
         </is>
       </c>
       <c r="J36" t="b">
